--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50918.49689003434</v>
+        <v>-50873.44002672606</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30062971.78277535</v>
+        <v>30124031.05829953</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20368936.45202664</v>
+        <v>20365513.35561619</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>737905.5762840286</v>
+        <v>736583.8782429222</v>
       </c>
     </row>
     <row r="11">
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25956,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26035,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>63815.42259698333</v>
+        <v>61526.66922835662</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>11781.30878713538</v>
       </c>
       <c r="P2" t="n">
-        <v>11781.30878713538</v>
+        <v>12192.08035639045</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28206.72070875818</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="C4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="D4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="E4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="F4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="G4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="H4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="I4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="J4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="K4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="L4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="M4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="N4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="O4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="P4" t="n">
-        <v>6872.430125828972</v>
+        <v>2598.28083913613</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>923.8712204931193</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-28718.72133869359</v>
       </c>
       <c r="E6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="F6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="G6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="H6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="I6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="J6" t="n">
-        <v>4908.878661306406</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="K6" t="n">
-        <v>4908.878661306411</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="L6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="M6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="N6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="O6" t="n">
-        <v>4908.878661306408</v>
+        <v>4908.878661306407</v>
       </c>
       <c r="P6" t="n">
-        <v>4908.878661306408</v>
+        <v>-19536.79241199698</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50873.44002672606</v>
+        <v>-62279.86523165858</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30124031.05829953</v>
+        <v>30062971.78277535</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20365513.35561619</v>
+        <v>20368936.45202664</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>736583.8782429222</v>
+        <v>737905.5762840286</v>
       </c>
     </row>
     <row r="11">
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>14.96006091008002</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>14.09296117214526</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>11.42645714324615</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>7.515868967310212</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>6.880166552921242</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>8.685614816471279</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>13.07601436734049</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>17.72668497534603</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>24.33067662398352</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.03391129523499</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>11.9988978019839</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>7.679584047590229</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>2.722701059689193</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>1.483625009529543</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>4.364096701700124</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.11109056471342</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>18.01326862501631</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.23372809867477</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>12.08581989270142</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L46" t="n">
-        <v>10.55690853463604</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M46" t="n">
-        <v>10.59596068035418</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N46" t="n">
-        <v>9.054267004656879</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O46" t="n">
-        <v>11.69730019489984</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P46" t="n">
-        <v>13.13791998612571</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.22027128338765</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.1253022837963</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>293.1448980716953</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>27.97973229306479</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.44132614396322</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>217.9705227479646</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25958,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.0220783443572</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96195995481764</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>78.81782744194658</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>140.0937148239062</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>141.6788456974052</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>96.47266780995034</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>43.13202094074613</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1018718220549</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.579424386875</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>61526.66922835662</v>
+        <v>63815.42259698333</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>11781.30878713538</v>
       </c>
       <c r="P2" t="n">
-        <v>12192.08035639045</v>
+        <v>11781.30878713538</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28206.72070875818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="C4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="D4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="E4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="F4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="G4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="H4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="I4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="J4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="K4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="L4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="M4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="N4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="O4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="P4" t="n">
-        <v>2598.28083913613</v>
+        <v>6872.430125828972</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>923.8712204931193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28718.72133869359</v>
+        <v>-30076.65043549537</v>
       </c>
       <c r="C6" t="n">
-        <v>-28718.72133869359</v>
+        <v>-30076.65043549537</v>
       </c>
       <c r="D6" t="n">
-        <v>-28718.72133869359</v>
+        <v>-30076.65043549537</v>
       </c>
       <c r="E6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="F6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="G6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="H6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504626</v>
       </c>
       <c r="I6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="J6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="K6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="L6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="M6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="N6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="O6" t="n">
-        <v>4908.878661306407</v>
+        <v>3550.949564504628</v>
       </c>
       <c r="P6" t="n">
-        <v>-19536.79241199698</v>
+        <v>3550.949564504628</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>42.37941378408804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>42.37941378408804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1703695026496</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.744796669010217</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.568170250898712</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>14.4598985755065</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>21.67163962266408</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>26.88558528937678</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>29.9153939321216</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>30.39945628152478</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>28.70534453955282</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>24.49934744289081</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.39798962925201</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>10.70197327081295</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.882295041627765</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7457924978486244</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.013629560211968</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09115572021483087</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8803723504958668</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.138475454765011</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>8.612216531349439</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>14.71964978574311</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>19.79238565454036</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>21.68826471269268</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>17.40674450312854</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.63594772426508</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.659650769127835</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.693177522411441</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3674215213922349</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.005997086856238876</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0764218937090112</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6794601095219365</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.298214767176447</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.403027885227092</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.878834560010572</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>11.36185136106518</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>11.97947921113164</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>11.69463397094351</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>10.80188730352461</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>9.242880671860771</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.399291481397293</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.436206238952449</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.331825184001586</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3265299094839569</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004168466929582434</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
